--- a/data_check/note-place.xlsx
+++ b/data_check/note-place.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pracownik\Documents\GitHub\Wiki_update\data_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{49D8C250-EC09-41DE-B562-18E24E3BF80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7B5DD0-1DFC-4F65-87C2-A6F00C290F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query (2)" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="dane tp" sheetId="4" r:id="rId5"/>
     <sheet name="Arkusz1" sheetId="2" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Arkusz1!$A$1:$B$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Arkusz5!$A$1:$D$288</definedName>
@@ -30,12 +27,23 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'query (2)'!$A$1:$C$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'query (3)'!$A$1:$B$96</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="516">
   <si>
     <t>Q6</t>
   </si>
@@ -1583,15 +1591,12 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>P23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2179,517 +2184,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="QS"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="E1" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="E2" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="E42" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="E43" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="E59" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="E60" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="E61" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="E62" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="E63" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="E64" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="E65" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="E66" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="E67" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="E68" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="E69" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="E70" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="E71" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="E72" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="E73" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="E74" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="E75" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="E76" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="E77" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="E78" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="E79" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="E80" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="E81" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="E82" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="E83" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="E84" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="E85" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="E86" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="E87" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="E88" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="E89" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="E90" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="E91" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="E92" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="E93" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="E94" t="str">
-            <v>Q2101</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="E95" t="str">
-            <v>Q66</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="E96" t="str">
-            <v>Q66</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>Q1200</v>
-          </cell>
-          <cell r="B97" t="str">
-            <v>P21</v>
-          </cell>
-          <cell r="C97" t="str">
-            <v>"N(icolaus). X. de Ben(even)to"</v>
-          </cell>
-          <cell r="D97" t="str">
-            <v>P22</v>
-          </cell>
-          <cell r="E97" t="str">
-            <v>Q66</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -2986,7 +2480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4030,7 +3524,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C96">
+  <autoFilter ref="A1:C96" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
       <sortCondition ref="B1:B96"/>
     </sortState>
@@ -4040,7 +3534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4802,16 +4296,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B96"/>
+  <autoFilter ref="A1:B96" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
@@ -8850,7 +8344,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D288">
+  <autoFilter ref="A1:D288" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D288">
       <sortCondition ref="C1:C288"/>
     </sortState>
@@ -8860,10 +8354,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A193"/>
     </sheetView>
   </sheetViews>
@@ -9485,11 +8979,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10968,7 +10462,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C99">
+  <autoFilter ref="A1:C99" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C99">
       <sortCondition ref="C1:C99"/>
     </sortState>
@@ -10978,12 +10472,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A59" sqref="A25:A95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11893,7 +11387,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B101">
+  <autoFilter ref="A1:B101" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="#N/D"/>
